--- a/back/src/main/resources/excel/excel-template.xlsx
+++ b/back/src/main/resources/excel/excel-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>记录时间</t>
   </si>
@@ -59,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -73,6 +76,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,6 +84,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -87,32 +99,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,31 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,39 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,25 +237,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +357,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,139 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,31 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +476,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,24 +520,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,154 +533,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,26 +1036,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1058,29 +1078,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1111111111111" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1093,41 +1122,56 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.4444444444444" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/back/src/main/resources/excel/excel-template.xlsx
+++ b/back/src/main/resources/excel/excel-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>更改时间</t>
   </si>
   <si>
-    <t>更改人</t>
+    <t>操作人</t>
   </si>
   <si>
     <t>异常定位</t>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,91 +84,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,6 +121,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,46 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,43 +237,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,139 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,65 +431,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +474,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1038,7 @@
   <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/back/src/main/resources/excel/excel-template.xlsx
+++ b/back/src/main/resources/excel/excel-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,15 +91,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,14 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,58 +198,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,21 +225,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,19 +237,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,163 +369,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,32 +500,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -490,41 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,130 +551,130 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,14 +1038,14 @@
   <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.8888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
@@ -1081,13 +1081,14 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8888888888889" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.5555555555556" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.1111111111111" style="1" customWidth="1"/>
   </cols>
@@ -1124,15 +1125,15 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5555555555556" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.8888888888889" style="1" customWidth="1"/>
